--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE74DA67-1D9C-485A-A13A-4D261FA3A876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B848D2F-AD53-429F-A7A6-ABBF8FD2A131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="academicServices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -604,13 +604,24 @@
   </si>
   <si>
     <t>https://www.microsoft.com/en-us/research/blog/boosting-fitness-and-workplace-performance-looks-to-machine-learning-for-answers/</t>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address card outline</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Dp_4mlDwxLz_7JbP7-EZXxcpFqCOstr_rBQFI0OYxV0/edit?usp=sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +670,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -715,6 +732,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1150,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2506EC-EE0F-4FFE-A52A-81C20650DD9B}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1267,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76978471-F33D-4D13-A68C-06939ED3B9EE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,29 +1322,41 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B848D2F-AD53-429F-A7A6-ABBF8FD2A131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56881986-7EA1-49BA-A24A-1D2E90B45F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="academicServices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>date</t>
   </si>
@@ -614,6 +614,49 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1Dp_4mlDwxLz_7JbP7-EZXxcpFqCOstr_rBQFI0OYxV0/edit?usp=sharing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Stage Receptivity Model for Mobile Just-In-Time Health Intervention</t>
+  </si>
+  <si>
+    <t>Woohyeok Choi, Sangkeun Park, Duyeon Kim, Youn-kyung Lim, Uichin Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMWUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article No. 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./other/Choi2019Multi.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1145/3328910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./paper/Choi2019Multi.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76978471-F33D-4D13-A68C-06939ED3B9EE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1362,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A191BF8-3B94-4133-B236-99C01FD3978C}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1438,449 +1481,504 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
+      <c r="C2" t="s">
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="141.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>2018</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
       <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="141.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="154.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:19" ht="154.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>2017</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="7">
         <v>104</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G6" s="7">
         <v>2016</v>
       </c>
-      <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>130</v>
+      <c r="O6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7">
         <v>2016</v>
       </c>
+      <c r="H7" s="7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
       <c r="J7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="N8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G9" s="7">
         <v>2015</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>136</v>
+      <c r="P9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>2014</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="N11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>58</v>
       </c>
     </row>

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56881986-7EA1-49BA-A24A-1D2E90B45F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56582C0B-91AB-4A38-AD8D-B1D03F51595C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="academicServices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="194">
   <si>
     <t>date</t>
   </si>
@@ -38,9 +38,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>ACM CHI</t>
-  </si>
-  <si>
     <t>External reviewer</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>2015-03-01</t>
   </si>
   <si>
-    <t>2016-11-01</t>
-  </si>
-  <si>
     <t>Research intern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,10 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-06-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Multi-Stage Receptivity Model for Mobile Just-In-Time Health Intervention</t>
   </si>
   <si>
@@ -657,6 +647,68 @@
   </si>
   <si>
     <t>./paper/Choi2019Multi.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicting Opportune Moments for In-vehicle Proactive Speech Services</t>
+  </si>
+  <si>
+    <t>Auk Kim, Woohyeok Choi, Jungmi Park, Kyeyoon Kim, Uichin Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjunct Proceedings of the 2019 ACM International Joint Conference on Pervasive and Ubiquitous Computing and Proceedings of the 2019 ACM International Symposium on Wearable Computers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UbiComp/ISWC '19 Adjunct</t>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101 - 104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1145/3341162.3343841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./other/Kim2019Predicting.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./paper/Kim2019Predicting.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./poster/Kim2019Predicting.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM IMWUT Aug 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM CHI 2017 Papers and Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM CHI 2020 Papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +771,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -741,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -777,6 +835,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1058,18 +1120,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,18 +1146,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18">
+        <v>43678</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>43739</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,12 +1203,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1128,77 +1219,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1307,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -1225,7 +1316,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1236,88 +1327,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="B2" s="13">
         <v>2016</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="13">
         <v>2016</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="13">
         <v>2016</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="14">
         <v>2015</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -1332,68 +1423,68 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1405,13 +1496,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A191BF8-3B94-4133-B236-99C01FD3978C}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.875" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
@@ -1422,564 +1513,615 @@
     <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="181.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="181.5">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="148.5">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="141.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>2018</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
       <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="141.75">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="154.5">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H6" s="7">
+        <v>104</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="154.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="H5" s="7">
-        <v>104</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="M6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="77.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2016</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G7" s="7">
         <v>2016</v>
       </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="58.5" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7">
         <v>2016</v>
       </c>
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
       <c r="J8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="66">
+      <c r="A9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="L9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="124.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2015</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G10" s="7">
         <v>2015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>57</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="66">
+      <c r="A12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2014</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56582C0B-91AB-4A38-AD8D-B1D03F51595C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9E0DC-B884-4BD7-83BC-00539A791B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="200">
   <si>
     <t>date</t>
   </si>
@@ -709,6 +709,30 @@
   </si>
   <si>
     <t>ACM CHI 2020 Papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaetano Borriello Outstanding Award Finalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UbiComp/ISWC 2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designing Interactive Technologies to Encourage Physical Activities for Health Behavior Promotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM HEALTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1185,6 +1209,20 @@
         <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>43983</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1301,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2506EC-EE0F-4FFE-A52A-81C20650DD9B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1338,79 +1376,97 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="13">
-        <v>2016</v>
+        <v>194</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>164</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B3" s="13">
         <v>2016</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="14"/>
+        <v>163</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B4" s="13">
         <v>2016</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2016</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B6" s="14">
         <v>2015</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9E0DC-B884-4BD7-83BC-00539A791B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC3BA6-4AA8-49FC-B66B-4BAEAC8A2FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="academicServices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="207">
   <si>
     <t>date</t>
   </si>
@@ -44,42 +44,27 @@
     <t>position</t>
   </si>
   <si>
-    <t>2006 - 2013</t>
-  </si>
-  <si>
     <t>School of Computer Science, Korea Advanced Institute of Science and Technology (KAIST), South Korea</t>
   </si>
   <si>
     <t>B.S</t>
   </si>
   <si>
-    <t>2008 - 2010</t>
-  </si>
-  <si>
     <t>The South Korea Army</t>
   </si>
   <si>
     <t>Discharged as a sergent</t>
   </si>
   <si>
-    <t>2012 - 2012</t>
-  </si>
-  <si>
     <t>Korea Institute of Science and Technology Information (KISTI)</t>
   </si>
   <si>
-    <t>2013 - 2015</t>
-  </si>
-  <si>
     <t>Dept. of Knowledge Service Engineering, Korea Advanced Institute of Science and Technology (KAIST), South Korea</t>
   </si>
   <si>
     <t>M.S (adviser: Uichin Lee)</t>
   </si>
   <si>
-    <t>2015 - now</t>
-  </si>
-  <si>
     <t>Ph.d Student (adviser: Uichin Lee)</t>
   </si>
   <si>
@@ -733,6 +718,54 @@
   </si>
   <si>
     <t>ACM HEALTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACH CHI 2021 Late-Breaking Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Pervasive Computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006. 03 - 2013. 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008. 10 - 2010. 08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012. 07 - 2012. 08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013. 03 - 2015. 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015. 03 - 2021. 08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -862,7 +895,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1144,20 +1176,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1172,57 +1205,85 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1">
         <v>2017</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18">
-        <v>43678</v>
+      <c r="A3" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18">
-        <v>43739</v>
+      <c r="A4" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18">
-        <v>43983</v>
+      <c r="A5" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="B5">
         <v>2020</v>
       </c>
       <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>2021</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1238,12 +1299,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1262,72 +1324,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1404,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1365,106 +1427,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B3" s="13">
         <v>2016</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="13">
         <v>2016</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" s="13">
         <v>2016</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" s="14">
         <v>2015</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -1490,57 +1552,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1554,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A191BF8-3B94-4133-B236-99C01FD3978C}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1574,184 +1636,184 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="181.5">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="148.5">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>2018</v>
@@ -1763,50 +1825,50 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="141.75">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>2018</v>
@@ -1814,48 +1876,48 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="154.5">
       <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7">
         <v>2017</v>
@@ -1864,96 +1926,96 @@
         <v>104</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="77.25" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7">
         <v>2016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="58.5" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7">
         <v>2016</v>
@@ -1965,219 +2027,219 @@
         <v>3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="66">
       <c r="A9" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="7">
         <v>2016</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="124.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7">
         <v>2015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="27.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7">
         <v>2015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="66">
       <c r="A12" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7">
         <v>2014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
